--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Servant.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Servant.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LegendServantEntity" sheetId="1" r:id="rId1"/>
-    <sheet name="ServantBodyEntity" sheetId="2" r:id="rId2"/>
-    <sheet name="ServantJobEntity" sheetId="3" r:id="rId3"/>
+    <sheet name="ServantBodyEntity" sheetId="2" r:id="rId1"/>
+    <sheet name="ServantJobEntity" sheetId="3" r:id="rId2"/>
+    <sheet name="ServantIconEntity" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,20 +21,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린꼬마남자아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마여자아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPossibleLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성직자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_CharNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_OriginalSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_OriginalDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_OriginalINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_HairNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_HeadNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PowerMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,27 +171,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>legendServantNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bodyNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originalSTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originalDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originalINT</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,98 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레전드서번트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레전드서번트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레전드서번트3</t>
-  </si>
-  <si>
-    <t>DATAEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린꼬마남자아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬마여자아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPossibleLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATAEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성직자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자</t>
+    <t>iconNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,135 +513,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="7" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -631,199 +857,645 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Servant.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Servant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ServantBodyEntity" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,107 +87,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>초보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_CharNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_OriginalSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_OriginalDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_OriginalINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_HairNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend_HeadNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>궁수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>성직자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성직자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATAEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_CharNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_OriginalSTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_OriginalDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_OriginalINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_HairNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend_HeadNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATAEND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +563,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,25 +600,25 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -635,25 +635,25 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -699,22 +699,22 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -734,22 +734,22 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -769,13 +769,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>100</v>
@@ -804,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -836,13 +836,34 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -861,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -869,24 +890,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1506,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">

--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Servant.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Servant.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>42</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>77</v>
